--- a/codegen/__out__/pc/public/import_template/esw/card.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/card.xlsx
@@ -30,10 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.grade_lbl%&gt;&lt;%selectList.grade = data.getDictbiz.find((item) =&gt; item[0]?.code === "card_grade")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.grade &amp;&amp; selectList.grade.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.grade.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.growth_amt%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
@@ -413,12 +407,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/codegen/__out__/pc/public/import_template/esw/card.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/card.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"` })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.grade_lbl%&gt;&lt;%selectList.grade = data.getDictbiz.find((item) =&gt; item[0]?.code === "card_grade")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.grade &amp;&amp; selectList.grade.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.grade.join(",") }"`, allowBlank: '0' })%&gt;</t>

--- a/codegen/__out__/pc/public/import_template/esw/card.xlsx
+++ b/codegen/__out__/pc/public/import_template/esw/card.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsCard;%&gt;&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.grade_lbl%&gt;&lt;%selectList.grade = data.getDictbiz.find((item) =&gt; item[0]?.code === "card_grade")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.grade &amp;&amp; selectList.grade.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.grade.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.is_default_card_lbl%&gt;&lt;%selectList.is_default_card = data.getDict.find((item) =&gt; item[0]?.code === "is_default")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_default_card &amp;&amp; selectList.is_default_card.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_default_card.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
@@ -407,6 +410,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
